--- a/Mapas ETA.xlsx
+++ b/Mapas ETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-IMPACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C043F99F-9407-4AF2-8DDF-6E736C01C344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B827EB-EBC5-4592-8E51-185D4E5BF701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CEC111AD-E18E-43C0-8B55-B8588A817B3A}"/>
   </bookViews>
@@ -69,21 +69,12 @@
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/Imagen1.png</t>
   </si>
   <si>
-    <t>Antes de ETA</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/Imagen2.png</t>
   </si>
   <si>
-    <t>Durante ETA</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/Imagen3.png</t>
   </si>
   <si>
-    <t>Después de ETA</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/eta.gif</t>
   </si>
   <si>
@@ -118,6 +109,15 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/Zonas%20Urbanas.png</t>
+  </si>
+  <si>
+    <t>a. Antes de ETA</t>
+  </si>
+  <si>
+    <t>b. Durante ETA</t>
+  </si>
+  <si>
+    <t>c. Después de ETA</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,10 +494,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -542,39 +542,39 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -582,26 +582,26 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Mapas ETA.xlsx
+++ b/Mapas ETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-IMPACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B827EB-EBC5-4592-8E51-185D4E5BF701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF6ADE-84B2-4C39-A7B9-34FC11CF0591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CEC111AD-E18E-43C0-8B55-B8588A817B3A}"/>
   </bookViews>
@@ -57,12 +57,6 @@
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/Agric%20Tecn.png</t>
   </si>
   <si>
-    <t>Área con Agricultura Tecnificada (ha)</t>
-  </si>
-  <si>
-    <t>Área con Palma Africana (ha)</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/Palma%20Afr.png</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>Población en el Área Impactada</t>
   </si>
   <si>
-    <t>Área con Caña de Azúcar (ha)</t>
-  </si>
-  <si>
     <t>Zonas Urbanas e Industriales en el Área Impactada (ha)</t>
   </si>
   <si>
@@ -118,6 +109,15 @@
   </si>
   <si>
     <t>c. Después de ETA</t>
+  </si>
+  <si>
+    <t>Área con Agricultura Tecnificada (ha) en el Área Impactada</t>
+  </si>
+  <si>
+    <t>Área con Palma Africana (ha) en el Área Impactada</t>
+  </si>
+  <si>
+    <t>Área con Caña de Azúcar (ha) en el Área Impactada</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,10 +494,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -526,7 +526,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -534,74 +534,74 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Mapas ETA.xlsx
+++ b/Mapas ETA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-IMPACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF6ADE-84B2-4C39-A7B9-34FC11CF0591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7CF82E-F070-4243-8E52-E1FF4FA76919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CEC111AD-E18E-43C0-8B55-B8588A817B3A}"/>
   </bookViews>
@@ -39,21 +39,12 @@
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/%25Inund.png</t>
   </si>
   <si>
-    <t>Proporción Superfice Inundada (%)</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/Red%20Vial.png</t>
   </si>
   <si>
-    <t>Red Vial en el Área Impactada (m)</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/vivi.png</t>
   </si>
   <si>
-    <t>Viviendas en el Área Impactada (Nº)</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/Agric%20Tecn.png</t>
   </si>
   <si>
@@ -72,18 +63,6 @@
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/eta.gif</t>
   </si>
   <si>
-    <t>Trayectoria ETA</t>
-  </si>
-  <si>
-    <t>Hogares en el Área Impactada (Nº)</t>
-  </si>
-  <si>
-    <t>Población en el Área Impactada</t>
-  </si>
-  <si>
-    <t>Zonas Urbanas e Industriales en el Área Impactada (ha)</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -102,22 +81,43 @@
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-IMPACTOS/main/Imagenes%20ETA/Zonas%20Urbanas.png</t>
   </si>
   <si>
-    <t>a. Antes de ETA</t>
-  </si>
-  <si>
-    <t>b. Durante ETA</t>
-  </si>
-  <si>
-    <t>c. Después de ETA</t>
-  </si>
-  <si>
-    <t>Área con Agricultura Tecnificada (ha) en el Área Impactada</t>
-  </si>
-  <si>
-    <t>Área con Palma Africana (ha) en el Área Impactada</t>
-  </si>
-  <si>
-    <t>Área con Caña de Azúcar (ha) en el Área Impactada</t>
+    <t>a1. Antes de ETA</t>
+  </si>
+  <si>
+    <t>a2. Durante ETA</t>
+  </si>
+  <si>
+    <t>a3. Después de ETA</t>
+  </si>
+  <si>
+    <t>a4. Trayectoria ETA</t>
+  </si>
+  <si>
+    <t>b. Proporción Superfice Inundada (%)</t>
+  </si>
+  <si>
+    <t>c. Población en el Área Impactada</t>
+  </si>
+  <si>
+    <t>d. Hogares en el Área Impactada (Nº)</t>
+  </si>
+  <si>
+    <t>e. Viviendas en el Área Impactada (Nº)</t>
+  </si>
+  <si>
+    <t>f. Zonas Urbanas e Industriales en el Área Impactada (ha)</t>
+  </si>
+  <si>
+    <t>g. Red Vial en el Área Impactada (m)</t>
+  </si>
+  <si>
+    <t>h. Área con Agricultura Tecnificada (ha) en el Área Impactada</t>
+  </si>
+  <si>
+    <t>i. Área con Palma Africana (ha) en el Área Impactada</t>
+  </si>
+  <si>
+    <t>j. Área con Caña de Azúcar (ha) en el Área Impactada</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,15 +494,15 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -510,18 +510,18 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -529,7 +529,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -537,23 +537,23 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -561,47 +561,47 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
